--- a/Docs/reestr-prav-dostupa-02.09.24.xlsx
+++ b/Docs/reestr-prav-dostupa-02.09.24.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4B7D4-6907-4082-AC39-638860AD0E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA343DA-36CF-413E-A8F0-F53073CE4D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="608">
   <si>
     <t>ФИО сотрудника, имеющего права доступа для редактирования</t>
   </si>
@@ -1803,52 +1803,6 @@
     <t>https://ачии.рф/EduPerevods</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Файл размещает Лопатин А.Д. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Редактируют таблицу: Учебная часть - Сведения об обр. орг-ции - Образование - Численность обучающихся по реализуемым образовательным программам</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Файл размещает Лопатин А.Д. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Редактируют таблицу: Учебная часть - Сведения об обр. орг-ции - Образование - Информация о результатах перевода, восстановления и отчисления</t>
-    </r>
-  </si>
-  <si>
     <t>Учебная часть - Сведения об обр. орг-ции - Вакантные места для приема (перевода)</t>
   </si>
   <si>
@@ -1985,6 +1939,48 @@
   </si>
   <si>
     <t>Учебная часть - Сведения об обр. орг-ции - Места осуществления образовательной деятельности</t>
+  </si>
+  <si>
+    <t>Учебная часть - Сведения об обр. орг-ции - Образование - Численность обучающихся по реализуемым образовательным программам</t>
+  </si>
+  <si>
+    <t>Таблица</t>
+  </si>
+  <si>
+    <t>Файл</t>
+  </si>
+  <si>
+    <t>https://ачии.рф/Documents?doctype=EduChislen</t>
+  </si>
+  <si>
+    <t>таблица</t>
+  </si>
+  <si>
+    <t>Лашина Т.А., Самойлова Т.Ф.</t>
+  </si>
+  <si>
+    <t>https://ачии.рф/Documents?doctype=EduLanguages</t>
+  </si>
+  <si>
+    <t>Учебная часть - Сведения об обр. орг-ции - Образование - Информация о языках (документ)</t>
+  </si>
+  <si>
+    <t>Учебная часть - Сведения об обр. орг-ции - Образование - Информация о профессионально-общественной и/или общественной аккредитации образовательной программы</t>
+  </si>
+  <si>
+    <t>https://ачии.рф/EduPOAccreds</t>
+  </si>
+  <si>
+    <t>Учебная часть - Сведения об обр. орг-ции - Образование - Информация о результатах перевода, восстановления и отчисления</t>
+  </si>
+  <si>
+    <t>Учебная часть - Сведения об обр. орг-ции - Образование - Информация о результатах перевода, восстановления и отчисления (документ)</t>
+  </si>
+  <si>
+    <t>https://ачии.рф/Documents?doctype=EduPerevod</t>
+  </si>
+  <si>
+    <t>файл</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2445,6 +2441,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5181,10 +5180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5364,7 +5363,7 @@
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>479</v>
@@ -5450,7 +5449,7 @@
         <v>251</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="14" t="s">
@@ -5472,7 +5471,7 @@
       <c r="A13" s="71"/>
       <c r="B13" s="80"/>
       <c r="C13" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="14" t="s">
@@ -5494,7 +5493,7 @@
       <c r="A14" s="71"/>
       <c r="B14" s="80"/>
       <c r="C14" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="14" t="s">
@@ -5516,7 +5515,7 @@
       <c r="A15" s="71"/>
       <c r="B15" s="80"/>
       <c r="C15" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="14" t="s">
@@ -5538,7 +5537,7 @@
       <c r="A16" s="71"/>
       <c r="B16" s="81"/>
       <c r="C16" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>493</v>
@@ -5562,10 +5561,10 @@
         <v>260</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>221</v>
@@ -5581,10 +5580,10 @@
         <v>255</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>221</v>
@@ -5600,10 +5599,10 @@
         <v>256</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>221</v>
@@ -5619,10 +5618,10 @@
         <v>257</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>221</v>
@@ -5638,10 +5637,10 @@
         <v>258</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>221</v>
@@ -5657,10 +5656,10 @@
         <v>259</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>262</v>
@@ -5676,10 +5675,10 @@
         <v>261</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>262</v>
@@ -6358,7 +6357,7 @@
       <c r="A55" s="71"/>
       <c r="B55" s="87"/>
       <c r="C55" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>514</v>
@@ -6619,32 +6618,40 @@
       <c r="G72" s="24"/>
       <c r="H72" s="24"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="71"/>
       <c r="B73" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E73" s="28"/>
+      <c r="E73" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>600</v>
+      </c>
       <c r="G73" s="14" t="s">
-        <v>281</v>
+        <v>599</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="71"/>
       <c r="B74" s="67" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>298</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>473</v>
+        <v>602</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>248</v>
@@ -6653,14 +6660,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="71"/>
       <c r="B75" s="68"/>
       <c r="C75" s="14" t="s">
         <v>299</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>473</v>
+        <v>602</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>248</v>
@@ -6669,14 +6679,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="71"/>
       <c r="B76" s="68"/>
       <c r="C76" s="14" t="s">
         <v>290</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>473</v>
+        <v>602</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>248</v>
@@ -6685,14 +6698,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="71"/>
       <c r="B77" s="68"/>
       <c r="C77" s="14" t="s">
         <v>289</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>473</v>
+        <v>602</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>248</v>
@@ -6701,14 +6717,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="71"/>
       <c r="B78" s="68"/>
       <c r="C78" s="14" t="s">
         <v>300</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>473</v>
+        <v>602</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>248</v>
@@ -6717,14 +6736,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="71"/>
       <c r="B79" s="69"/>
       <c r="C79" s="14" t="s">
         <v>301</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>473</v>
+        <v>602</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>248</v>
@@ -6733,7 +6755,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="71"/>
       <c r="B80" s="67" t="s">
         <v>302</v>
@@ -6741,8 +6763,11 @@
       <c r="C80" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>473</v>
+      <c r="E80" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>281</v>
@@ -6754,14 +6779,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="71"/>
       <c r="B81" s="68"/>
       <c r="C81" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>473</v>
+      <c r="E81" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>281</v>
@@ -6773,14 +6801,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="71"/>
       <c r="B82" s="68"/>
       <c r="C82" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>473</v>
+      <c r="E82" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>281</v>
@@ -6792,14 +6823,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="71"/>
       <c r="B83" s="68"/>
       <c r="C83" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>473</v>
+      <c r="E83" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>281</v>
@@ -6811,14 +6845,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="71"/>
       <c r="B84" s="68"/>
       <c r="C84" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>473</v>
+      <c r="E84" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>281</v>
@@ -6830,14 +6867,17 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="71"/>
       <c r="B85" s="69"/>
       <c r="C85" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>473</v>
+      <c r="E85" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="F85" s="26" t="s">
+        <v>603</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>281</v>
@@ -6849,120 +6889,128 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="71"/>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="86" t="s">
         <v>419</v>
       </c>
+      <c r="C86" s="14" t="s">
+        <v>595</v>
+      </c>
       <c r="E86" s="28" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="F86" s="26" t="s">
         <v>546</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>221</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="71"/>
-      <c r="B87" s="14" t="s">
-        <v>303</v>
+      <c r="B87" s="88"/>
+      <c r="C87" s="14" t="s">
+        <v>596</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>283</v>
+        <v>599</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="71"/>
       <c r="B88" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="71"/>
-      <c r="B89" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>306</v>
+      <c r="B89" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>595</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>459</v>
+        <v>599</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>458</v>
+        <v>221</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>460</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="71"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="28" t="s">
-        <v>307</v>
+      <c r="B90" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>596</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>525</v>
+        <v>606</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>459</v>
+        <v>599</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>458</v>
+        <v>221</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>460</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="71"/>
-      <c r="B91" s="74"/>
+      <c r="B91" s="73" t="s">
+        <v>305</v>
+      </c>
       <c r="C91" s="28" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E91" s="28" t="s">
         <v>528</v>
@@ -6984,7 +7032,7 @@
       <c r="A92" s="71"/>
       <c r="B92" s="74"/>
       <c r="C92" s="28" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E92" s="28" t="s">
         <v>528</v>
@@ -7006,7 +7054,7 @@
       <c r="A93" s="71"/>
       <c r="B93" s="74"/>
       <c r="C93" s="28" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E93" s="28" t="s">
         <v>528</v>
@@ -7028,7 +7076,7 @@
       <c r="A94" s="71"/>
       <c r="B94" s="74"/>
       <c r="C94" s="28" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E94" s="28" t="s">
         <v>528</v>
@@ -7050,7 +7098,7 @@
       <c r="A95" s="71"/>
       <c r="B95" s="74"/>
       <c r="C95" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E95" s="28" t="s">
         <v>528</v>
@@ -7072,7 +7120,7 @@
       <c r="A96" s="71"/>
       <c r="B96" s="74"/>
       <c r="C96" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E96" s="28" t="s">
         <v>528</v>
@@ -7094,26 +7142,29 @@
       <c r="A97" s="71"/>
       <c r="B97" s="74"/>
       <c r="C97" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>458</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="71"/>
       <c r="B98" s="74"/>
       <c r="C98" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>528</v>
@@ -7135,28 +7186,30 @@
       <c r="A99" s="71"/>
       <c r="B99" s="74"/>
       <c r="C99" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>542</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="71"/>
-      <c r="B100" s="75"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="E100" s="28"/>
+        <v>313</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>528</v>
+      </c>
       <c r="F100" s="26" t="s">
         <v>525</v>
       </c>
@@ -7172,37 +7225,30 @@
     </row>
     <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="71"/>
-      <c r="B101" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>306</v>
+      <c r="B101" s="74"/>
+      <c r="C101" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>459</v>
+        <v>540</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>354</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="71"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E102" s="28" t="s">
-        <v>537</v>
-      </c>
+      <c r="B102" s="75"/>
+      <c r="C102" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E102" s="28"/>
       <c r="F102" s="26" t="s">
         <v>525</v>
       </c>
@@ -7213,14 +7259,16 @@
         <v>458</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>354</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="71"/>
-      <c r="B103" s="68"/>
+      <c r="B103" s="67" t="s">
+        <v>315</v>
+      </c>
       <c r="C103" s="14" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>537</v>
@@ -7242,7 +7290,7 @@
       <c r="A104" s="71"/>
       <c r="B104" s="68"/>
       <c r="C104" s="14" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E104" s="28" t="s">
         <v>537</v>
@@ -7264,7 +7312,7 @@
       <c r="A105" s="71"/>
       <c r="B105" s="68"/>
       <c r="C105" s="14" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E105" s="28" t="s">
         <v>537</v>
@@ -7286,7 +7334,7 @@
       <c r="A106" s="71"/>
       <c r="B106" s="68"/>
       <c r="C106" s="14" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E106" s="28" t="s">
         <v>537</v>
@@ -7308,7 +7356,7 @@
       <c r="A107" s="71"/>
       <c r="B107" s="68"/>
       <c r="C107" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E107" s="28" t="s">
         <v>537</v>
@@ -7330,7 +7378,7 @@
       <c r="A108" s="71"/>
       <c r="B108" s="68"/>
       <c r="C108" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E108" s="28" t="s">
         <v>537</v>
@@ -7352,16 +7400,16 @@
       <c r="A109" s="71"/>
       <c r="B109" s="68"/>
       <c r="C109" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>458</v>
@@ -7374,7 +7422,7 @@
       <c r="A110" s="71"/>
       <c r="B110" s="68"/>
       <c r="C110" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>537</v>
@@ -7394,21 +7442,21 @@
     </row>
     <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="71"/>
-      <c r="B111" s="69"/>
+      <c r="B111" s="68"/>
       <c r="C111" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>542</v>
+        <v>458</v>
       </c>
       <c r="I111" s="14" t="s">
         <v>354</v>
@@ -7416,49 +7464,55 @@
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="71"/>
-      <c r="B112" s="67" t="s">
-        <v>316</v>
-      </c>
+      <c r="B112" s="68"/>
       <c r="C112" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>536</v>
+        <v>313</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>537</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>543</v>
+        <v>459</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>458</v>
       </c>
+      <c r="I112" s="14" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="71"/>
-      <c r="B113" s="68"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>536</v>
+        <v>314</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>539</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>462</v>
+        <v>542</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="71"/>
-      <c r="B114" s="68"/>
+      <c r="B114" s="67" t="s">
+        <v>316</v>
+      </c>
       <c r="C114" s="14" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>536</v>
@@ -7470,54 +7524,56 @@
         <v>543</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="71"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="H115" s="28" t="s">
+      <c r="C115" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F115" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="H115" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-    </row>
-    <row r="116" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="71"/>
       <c r="B116" s="68"/>
-      <c r="C116" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="H116" s="28" t="s">
+      <c r="C116" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F116" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="H116" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-    </row>
-    <row r="117" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:10" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="71"/>
       <c r="B117" s="68"/>
       <c r="C117" s="28" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
+      <c r="F117" s="32"/>
       <c r="G117" s="28" t="s">
         <v>461</v>
       </c>
@@ -7527,107 +7583,106 @@
       <c r="I117" s="28"/>
       <c r="J117" s="28"/>
     </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="71"/>
       <c r="B118" s="68"/>
-      <c r="C118" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="H118" s="14" t="s">
+      <c r="C118" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="H118" s="28" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+    </row>
+    <row r="119" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="71"/>
-      <c r="B119" s="69"/>
-      <c r="C119" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="H119" s="14" t="s">
+      <c r="B119" s="68"/>
+      <c r="C119" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="H119" s="28" t="s">
         <v>462</v>
       </c>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
     </row>
     <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="71"/>
-      <c r="B120" s="67" t="s">
-        <v>321</v>
-      </c>
+      <c r="B120" s="68"/>
       <c r="C120" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>284</v>
+        <v>543</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>197</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="71"/>
-      <c r="B121" s="68"/>
+      <c r="B121" s="69"/>
       <c r="C121" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E121" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="71"/>
+      <c r="B122" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E122" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="F121" s="26" t="s">
+      <c r="F122" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G122" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H121" s="14" t="s">
+      <c r="H122" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="71"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="H122" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
     </row>
     <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="71"/>
       <c r="B123" s="68"/>
       <c r="C123" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>533</v>
@@ -7642,71 +7697,75 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="72"/>
-      <c r="B124" s="69"/>
-      <c r="C124" s="14" t="s">
+    <row r="124" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="71"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+    </row>
+    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="71"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="72"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E126" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="F124" s="35" t="s">
+      <c r="F126" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="G126" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H124" s="14" t="s">
+      <c r="H126" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="J124" s="14"/>
-    </row>
-    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="83" t="s">
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B127" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="E125" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="84"/>
-      <c r="B126" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H126" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I126" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="84"/>
-      <c r="B127" s="14" t="s">
-        <v>352</v>
-      </c>
       <c r="E127" s="14" t="s">
-        <v>473</v>
+        <v>563</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>562</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>248</v>
@@ -7716,9 +7775,9 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="85"/>
+      <c r="A128" s="84"/>
       <c r="B128" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E128" s="14" t="s">
         <v>473</v>
@@ -7733,59 +7792,54 @@
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="88" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="84"/>
+      <c r="B129" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="85"/>
+      <c r="B130" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="B129" s="67" t="s">
+      <c r="B131" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C131" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E129" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="F129" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="89"/>
-      <c r="B130" s="68"/>
-      <c r="C130" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="H130" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="89"/>
-      <c r="B131" s="68"/>
-      <c r="C131" s="14" t="s">
-        <v>359</v>
-      </c>
       <c r="E131" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>245</v>
@@ -7795,16 +7849,16 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="89"/>
-      <c r="B132" s="69"/>
+      <c r="A132" s="90"/>
+      <c r="B132" s="68"/>
       <c r="C132" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>245</v>
@@ -7814,18 +7868,16 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="89"/>
-      <c r="B133" s="67" t="s">
-        <v>361</v>
-      </c>
+      <c r="A133" s="90"/>
+      <c r="B133" s="68"/>
       <c r="C133" s="14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G133" s="14" t="s">
         <v>245</v>
@@ -7835,16 +7887,16 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="89"/>
-      <c r="B134" s="68"/>
+      <c r="A134" s="90"/>
+      <c r="B134" s="69"/>
       <c r="C134" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>245</v>
@@ -7854,16 +7906,18 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="89"/>
-      <c r="B135" s="68"/>
+      <c r="A135" s="90"/>
+      <c r="B135" s="67" t="s">
+        <v>361</v>
+      </c>
       <c r="C135" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>245</v>
@@ -7873,16 +7927,16 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="89"/>
-      <c r="B136" s="69"/>
+      <c r="A136" s="90"/>
+      <c r="B136" s="68"/>
       <c r="C136" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>245</v>
@@ -7891,54 +7945,54 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="89"/>
-      <c r="B137" s="67" t="s">
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="90"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="90"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="90"/>
+      <c r="B139" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="C137" s="14" t="s">
+      <c r="C139" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E137" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H137" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I137" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="89"/>
-      <c r="B138" s="68"/>
-      <c r="C138" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H138" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I138" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="89"/>
-      <c r="B139" s="68"/>
-      <c r="C139" s="14" t="s">
-        <v>358</v>
-      </c>
       <c r="E139" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G139" s="14" t="s">
         <v>281</v>
@@ -7951,13 +8005,13 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="89"/>
+      <c r="A140" s="90"/>
       <c r="B140" s="68"/>
       <c r="C140" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>281</v>
@@ -7970,13 +8024,13 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="89"/>
-      <c r="B141" s="69"/>
+      <c r="A141" s="90"/>
+      <c r="B141" s="68"/>
       <c r="C141" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G141" s="14" t="s">
         <v>281</v>
@@ -7988,16 +8042,14 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="89"/>
-      <c r="B142" s="67" t="s">
-        <v>421</v>
-      </c>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="90"/>
+      <c r="B142" s="68"/>
       <c r="C142" s="14" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>281</v>
@@ -8010,13 +8062,13 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="89"/>
-      <c r="B143" s="68"/>
+      <c r="A143" s="90"/>
+      <c r="B143" s="69"/>
       <c r="C143" s="14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G143" s="14" t="s">
         <v>281</v>
@@ -8028,14 +8080,16 @@
         <v>348</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="89"/>
-      <c r="B144" s="68"/>
+    <row r="144" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="90"/>
+      <c r="B144" s="67" t="s">
+        <v>421</v>
+      </c>
       <c r="C144" s="14" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G144" s="14" t="s">
         <v>281</v>
@@ -8048,13 +8102,13 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="89"/>
+      <c r="A145" s="90"/>
       <c r="B145" s="68"/>
       <c r="C145" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G145" s="14" t="s">
         <v>281</v>
@@ -8068,12 +8122,12 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="90"/>
-      <c r="B146" s="69"/>
+      <c r="B146" s="68"/>
       <c r="C146" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G146" s="14" t="s">
         <v>281</v>
@@ -8085,89 +8139,99 @@
         <v>348</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="83" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="90"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I147" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="91"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I148" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B149" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="E147" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
-    </row>
-    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="84"/>
-      <c r="B148" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="E148" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="F148" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="84"/>
-      <c r="B149" s="14" t="s">
-        <v>365</v>
-      </c>
       <c r="E149" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="H149" s="14" t="s">
-        <v>463</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="84"/>
       <c r="B150" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G150" s="24"/>
       <c r="H150" s="24"/>
     </row>
-    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="84"/>
       <c r="B151" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="F151" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
+        <v>569</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="84"/>
       <c r="B152" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G152" s="24"/>
       <c r="H152" s="24"/>
@@ -8175,13 +8239,13 @@
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="84"/>
       <c r="B153" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G153" s="24"/>
       <c r="H153" s="24"/>
@@ -8189,126 +8253,110 @@
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="84"/>
       <c r="B154" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="F154" s="26"/>
+        <v>571</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>570</v>
+      </c>
       <c r="G154" s="24"/>
       <c r="H154" s="24"/>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="84"/>
       <c r="B155" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F155" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H155" s="14" t="s">
-        <v>198</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="84"/>
       <c r="B156" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="F156" s="26"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="84"/>
+      <c r="B157" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="84"/>
+      <c r="B158" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="E156" s="28" t="s">
+      <c r="E158" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="85"/>
+      <c r="B159" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="E159" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="B160" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E160" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="F156" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H156" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="85"/>
-      <c r="B157" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="C157" s="18"/>
-      <c r="E157" s="28" t="s">
+      <c r="F160" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="B158" s="67" t="s">
-        <v>375</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="F158" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="G158" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="H158" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I158" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="84"/>
-      <c r="B159" s="68"/>
-      <c r="C159" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E159" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="H159" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I159" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A160" s="84"/>
-      <c r="B160" s="68"/>
-      <c r="C160" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E160" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="F160" s="26" t="s">
-        <v>579</v>
       </c>
       <c r="G160" s="14" t="s">
         <v>248</v>
@@ -8322,36 +8370,37 @@
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="84"/>
-      <c r="B161" s="69"/>
+      <c r="B161" s="68"/>
       <c r="C161" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F161" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>414</v>
+        <v>248</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>414</v>
+        <v>221</v>
+      </c>
+      <c r="I161" s="14" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="84"/>
-      <c r="B162" s="67" t="s">
-        <v>380</v>
-      </c>
+      <c r="B162" s="68"/>
       <c r="C162" s="14" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F162" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G162" s="14" t="s">
         <v>248</v>
@@ -8365,37 +8414,36 @@
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="84"/>
-      <c r="B163" s="68"/>
+      <c r="B163" s="69"/>
       <c r="C163" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F163" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I163" s="14" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="84"/>
-      <c r="B164" s="68"/>
+      <c r="B164" s="67" t="s">
+        <v>380</v>
+      </c>
       <c r="C164" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>248</v>
@@ -8409,74 +8457,80 @@
     </row>
     <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="84"/>
-      <c r="B165" s="69"/>
+      <c r="B165" s="68"/>
       <c r="C165" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>414</v>
+        <v>248</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>414</v>
+        <v>221</v>
+      </c>
+      <c r="I165" s="14" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="84"/>
-      <c r="B166" s="67" t="s">
-        <v>383</v>
-      </c>
+      <c r="B166" s="68"/>
       <c r="C166" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E166" s="28" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>465</v>
+        <v>248</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>182</v>
+        <v>221</v>
+      </c>
+      <c r="I166" s="14" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="84"/>
-      <c r="B167" s="68"/>
+      <c r="B167" s="69"/>
       <c r="C167" s="14" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="84"/>
-      <c r="B168" s="68"/>
+      <c r="B168" s="67" t="s">
+        <v>383</v>
+      </c>
       <c r="C168" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F168" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G168" s="14" t="s">
         <v>465</v>
@@ -8489,13 +8543,13 @@
       <c r="A169" s="84"/>
       <c r="B169" s="68"/>
       <c r="C169" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F169" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G169" s="14" t="s">
         <v>465</v>
@@ -8506,39 +8560,37 @@
     </row>
     <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="84"/>
-      <c r="B170" s="69"/>
+      <c r="B170" s="68"/>
       <c r="C170" s="14" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F170" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="84"/>
-      <c r="B171" s="67" t="s">
-        <v>388</v>
-      </c>
+      <c r="B171" s="68"/>
       <c r="C171" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F171" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
       <c r="H171" s="14" t="s">
         <v>182</v>
@@ -8546,34 +8598,36 @@
     </row>
     <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="84"/>
-      <c r="B172" s="68"/>
+      <c r="B172" s="69"/>
       <c r="C172" s="14" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F172" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="H172" s="14" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="84"/>
-      <c r="B173" s="68"/>
+      <c r="B173" s="67" t="s">
+        <v>388</v>
+      </c>
       <c r="C173" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F173" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>182</v>
@@ -8586,13 +8640,13 @@
       <c r="A174" s="84"/>
       <c r="B174" s="68"/>
       <c r="C174" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F174" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G174" s="14" t="s">
         <v>182</v>
@@ -8603,51 +8657,65 @@
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="84"/>
-      <c r="B175" s="69"/>
+      <c r="B175" s="68"/>
       <c r="C175" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="84"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E176" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F176" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="84"/>
+      <c r="B177" s="69"/>
+      <c r="C177" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E175" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>580</v>
-      </c>
-      <c r="G175" s="14" t="s">
+      <c r="E177" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="G177" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="H175" s="14" t="s">
+      <c r="H177" s="14" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="84"/>
-      <c r="B176" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="E176" s="28"/>
-      <c r="G176" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="H176" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="84"/>
-      <c r="B177" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="E177" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G177" s="28"/>
-      <c r="H177" s="28"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="84"/>
       <c r="B178" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E178" s="28"/>
       <c r="G178" s="14" t="s">
@@ -8660,37 +8728,35 @@
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="84"/>
       <c r="B179" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E179" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G179" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>282</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="E179" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="G179" s="28"/>
+      <c r="H179" s="28"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="84"/>
       <c r="B180" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E180" s="28"/>
       <c r="G180" s="14" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>282</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="84"/>
       <c r="B181" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E181" s="28"/>
+        <v>392</v>
+      </c>
+      <c r="E181" s="28" t="s">
+        <v>473</v>
+      </c>
       <c r="G181" s="14" t="s">
         <v>281</v>
       </c>
@@ -8701,11 +8767,9 @@
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="84"/>
       <c r="B182" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E182" s="28" t="s">
-        <v>577</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E182" s="28"/>
       <c r="G182" s="14" t="s">
         <v>281</v>
       </c>
@@ -8716,11 +8780,9 @@
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="84"/>
       <c r="B183" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>577</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E183" s="28"/>
       <c r="G183" s="14" t="s">
         <v>281</v>
       </c>
@@ -8731,10 +8793,10 @@
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="84"/>
       <c r="B184" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E184" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G184" s="14" t="s">
         <v>281</v>
@@ -8746,10 +8808,10 @@
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="84"/>
       <c r="B185" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G185" s="14" t="s">
         <v>281</v>
@@ -8761,10 +8823,10 @@
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="84"/>
       <c r="B186" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G186" s="14" t="s">
         <v>281</v>
@@ -8776,67 +8838,58 @@
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="84"/>
       <c r="B187" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="84"/>
       <c r="B188" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="F188" s="26" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="84"/>
-      <c r="B189" s="36" t="s">
-        <v>402</v>
+      <c r="B189" s="14" t="s">
+        <v>400</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="F189" s="26" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G189" s="14" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I189" s="14" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="84"/>
       <c r="B190" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F190" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G190" s="14" t="s">
         <v>182</v>
@@ -8847,89 +8900,92 @@
     </row>
     <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="84"/>
-      <c r="B191" s="14" t="s">
-        <v>404</v>
+      <c r="B191" s="36" t="s">
+        <v>402</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F191" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>414</v>
+        <v>282</v>
+      </c>
+      <c r="I191" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="84"/>
-      <c r="B192" s="36" t="s">
-        <v>405</v>
+      <c r="B192" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F192" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I192" s="14" t="s">
-        <v>348</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="84"/>
       <c r="B193" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F193" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="H193" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I193" s="14" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="84"/>
-      <c r="B194" s="14" t="s">
-        <v>407</v>
+      <c r="B194" s="36" t="s">
+        <v>405</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F194" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="H194" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="85"/>
+        <v>282</v>
+      </c>
+      <c r="I194" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="84"/>
       <c r="B195" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>473</v>
+        <v>582</v>
+      </c>
+      <c r="F195" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="G195" s="14" t="s">
         <v>281</v>
@@ -8938,140 +8994,134 @@
         <v>282</v>
       </c>
       <c r="I195" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="84"/>
+      <c r="B196" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E196" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="F196" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="H196" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="85"/>
+      <c r="B197" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E197" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I197" s="14" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="83" t="s">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="83" t="s">
         <v>409</v>
       </c>
-      <c r="B196" s="91" t="s">
+      <c r="B198" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C198" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="E198" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I198" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="84"/>
+      <c r="B199" s="93"/>
+      <c r="C199" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E199" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="E196" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G196" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H196" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I196" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="84"/>
-      <c r="B197" s="92"/>
-      <c r="C197" s="14" t="s">
+      <c r="F199" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="E197" s="28" t="s">
+    </row>
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="84"/>
+      <c r="B200" s="94"/>
+      <c r="C200" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="F197" s="26" t="s">
+      <c r="E200" s="28" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="84"/>
-      <c r="B198" s="93"/>
-      <c r="C198" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="E198" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="F198" s="26" t="s">
+      <c r="F200" s="26" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="84"/>
-      <c r="B199" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E199" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G199" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H199" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="84"/>
-      <c r="B200" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="E200" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G200" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H200" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="84"/>
       <c r="B201" s="14" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="F201" s="26" t="s">
-        <v>583</v>
+        <v>473</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H201" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I201" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="84"/>
-      <c r="B202" s="36" t="s">
-        <v>402</v>
+      <c r="B202" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="E202" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="F202" s="26" t="s">
-        <v>583</v>
+        <v>473</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H202" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I202" s="14" t="s">
-        <v>348</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="84"/>
       <c r="B203" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F203" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G203" s="14" t="s">
         <v>281</v>
@@ -9085,14 +9135,14 @@
     </row>
     <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="84"/>
-      <c r="B204" s="14" t="s">
-        <v>404</v>
+      <c r="B204" s="36" t="s">
+        <v>402</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F204" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G204" s="14" t="s">
         <v>281</v>
@@ -9101,19 +9151,19 @@
         <v>282</v>
       </c>
       <c r="I204" s="14" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="84"/>
-      <c r="B205" s="36" t="s">
-        <v>405</v>
+      <c r="B205" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F205" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G205" s="14" t="s">
         <v>281</v>
@@ -9122,19 +9172,19 @@
         <v>282</v>
       </c>
       <c r="I205" s="14" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="84"/>
       <c r="B206" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E206" s="28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F206" s="26" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G206" s="14" t="s">
         <v>281</v>
@@ -9143,16 +9193,19 @@
         <v>282</v>
       </c>
       <c r="I206" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="85"/>
-      <c r="B207" s="22" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207" s="84"/>
+      <c r="B207" s="36" t="s">
+        <v>405</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>473</v>
+        <v>582</v>
+      </c>
+      <c r="F207" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="G207" s="14" t="s">
         <v>281</v>
@@ -9161,21 +9214,19 @@
         <v>282</v>
       </c>
       <c r="I207" s="14" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A208" s="83" t="s">
-        <v>417</v>
-      </c>
-      <c r="B208" s="22" t="s">
-        <v>418</v>
+      <c r="A208" s="84"/>
+      <c r="B208" s="14" t="s">
+        <v>406</v>
       </c>
       <c r="E208" s="28" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="F208" s="26" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="G208" s="14" t="s">
         <v>281</v>
@@ -9184,19 +9235,16 @@
         <v>282</v>
       </c>
       <c r="I208" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A209" s="84"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="85"/>
       <c r="B209" s="22" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="E209" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="F209" s="26" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="G209" s="14" t="s">
         <v>281</v>
@@ -9209,15 +9257,17 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="84"/>
+      <c r="A210" s="83" t="s">
+        <v>417</v>
+      </c>
       <c r="B210" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E210" s="28" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="F210" s="26" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G210" s="14" t="s">
         <v>281</v>
@@ -9229,13 +9279,16 @@
         <v>412</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="85"/>
-      <c r="B211" s="14" t="s">
-        <v>423</v>
+    <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="84"/>
+      <c r="B211" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>473</v>
+        <v>555</v>
+      </c>
+      <c r="F211" s="26" t="s">
+        <v>518</v>
       </c>
       <c r="G211" s="14" t="s">
         <v>281</v>
@@ -9244,57 +9297,60 @@
         <v>282</v>
       </c>
       <c r="I211" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="84"/>
+      <c r="B212" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E212" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="F212" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="G212" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H212" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I212" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="85"/>
+      <c r="B213" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E213" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G213" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H213" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I213" s="14" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A212" s="83" t="s">
+    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214" s="83" t="s">
         <v>424</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B214" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="E212" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="G212" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="H212" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A213" s="84"/>
-      <c r="B213" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E213" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="G213" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="H213" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A214" s="84"/>
-      <c r="B214" s="14" t="s">
-        <v>427</v>
-      </c>
       <c r="E214" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F214" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G214" s="14" t="s">
         <v>433</v>
@@ -9306,13 +9362,13 @@
     <row r="215" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="84"/>
       <c r="B215" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F215" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G215" s="14" t="s">
         <v>433</v>
@@ -9321,16 +9377,16 @@
         <v>434</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="84"/>
-      <c r="B216" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>429</v>
+      <c r="B216" s="14" t="s">
+        <v>427</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>473</v>
+        <v>552</v>
+      </c>
+      <c r="F216" s="26" t="s">
+        <v>553</v>
       </c>
       <c r="G216" s="14" t="s">
         <v>433</v>
@@ -9339,14 +9395,16 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="84"/>
-      <c r="B217" s="68"/>
-      <c r="C217" s="14" t="s">
-        <v>430</v>
+      <c r="B217" s="14" t="s">
+        <v>428</v>
       </c>
       <c r="E217" s="28" t="s">
-        <v>473</v>
+        <v>552</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>553</v>
       </c>
       <c r="G217" s="14" t="s">
         <v>433</v>
@@ -9357,9 +9415,11 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="84"/>
-      <c r="B218" s="69"/>
+      <c r="B218" s="67" t="s">
+        <v>108</v>
+      </c>
       <c r="C218" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E218" s="28" t="s">
         <v>473</v>
@@ -9371,16 +9431,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" s="85"/>
-      <c r="B219" s="14" t="s">
-        <v>432</v>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" s="84"/>
+      <c r="B219" s="68"/>
+      <c r="C219" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="E219" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="F219" s="26" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="G219" s="14" t="s">
         <v>433</v>
@@ -9389,30 +9447,26 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A220" s="83" t="s">
-        <v>435</v>
-      </c>
-      <c r="B220" s="14" t="s">
-        <v>436</v>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" s="84"/>
+      <c r="B220" s="69"/>
+      <c r="C220" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="E220" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="F220" s="26" t="s">
-        <v>551</v>
+        <v>473</v>
       </c>
       <c r="G220" s="14" t="s">
-        <v>248</v>
+        <v>433</v>
       </c>
       <c r="H220" s="14" t="s">
-        <v>221</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A221" s="84"/>
+      <c r="A221" s="85"/>
       <c r="B221" s="14" t="s">
-        <v>307</v>
+        <v>432</v>
       </c>
       <c r="E221" s="28" t="s">
         <v>550</v>
@@ -9421,22 +9475,24 @@
         <v>551</v>
       </c>
       <c r="G221" s="14" t="s">
-        <v>248</v>
+        <v>433</v>
       </c>
       <c r="H221" s="14" t="s">
-        <v>221</v>
+        <v>434</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A222" s="84"/>
+      <c r="A222" s="83" t="s">
+        <v>435</v>
+      </c>
       <c r="B222" s="14" t="s">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="E222" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F222" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G222" s="14" t="s">
         <v>248</v>
@@ -9448,13 +9504,13 @@
     <row r="223" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="84"/>
       <c r="B223" s="14" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E223" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F223" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G223" s="14" t="s">
         <v>248</v>
@@ -9466,13 +9522,13 @@
     <row r="224" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="84"/>
       <c r="B224" s="14" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F224" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G224" s="14" t="s">
         <v>248</v>
@@ -9484,13 +9540,13 @@
     <row r="225" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="84"/>
       <c r="B225" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F225" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G225" s="14" t="s">
         <v>248</v>
@@ -9502,13 +9558,13 @@
     <row r="226" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="84"/>
       <c r="B226" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E226" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F226" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G226" s="14" t="s">
         <v>248</v>
@@ -9520,13 +9576,13 @@
     <row r="227" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="84"/>
       <c r="B227" s="14" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="E227" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F227" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G227" s="14" t="s">
         <v>248</v>
@@ -9538,13 +9594,13 @@
     <row r="228" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="84"/>
       <c r="B228" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E228" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F228" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G228" s="14" t="s">
         <v>248</v>
@@ -9554,15 +9610,15 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A229" s="85"/>
+      <c r="A229" s="84"/>
       <c r="B229" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E229" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F229" s="26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G229" s="14" t="s">
         <v>248</v>
@@ -9571,55 +9627,53 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="83" t="s">
+    <row r="230" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="84"/>
+      <c r="B230" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="E230" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="F230" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="H230" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="85"/>
+      <c r="B231" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E231" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="F231" s="26" t="s">
+        <v>549</v>
+      </c>
+      <c r="G231" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="H231" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" s="83" t="s">
         <v>442</v>
       </c>
-      <c r="B230" s="67" t="s">
+      <c r="B232" s="67" t="s">
         <v>443</v>
       </c>
-      <c r="C230" s="14" t="s">
+      <c r="C232" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="E230" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G230" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H230" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I230" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="84"/>
-      <c r="B231" s="68"/>
-      <c r="C231" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="E231" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H231" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I231" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="85"/>
-      <c r="B232" s="69"/>
-      <c r="C232" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="E232" s="14" t="s">
+      <c r="E232" s="28" t="s">
         <v>473</v>
       </c>
       <c r="G232" s="14" t="s">
@@ -9633,40 +9687,52 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="83" t="s">
+      <c r="A233" s="84"/>
+      <c r="B233" s="68"/>
+      <c r="C233" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E233" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H233" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I233" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" s="85"/>
+      <c r="B234" s="69"/>
+      <c r="C234" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="E234" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H234" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I234" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" s="83" t="s">
         <v>447</v>
       </c>
-      <c r="B233" s="67" t="s">
+      <c r="B235" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="C235" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="G233" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H233" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="84"/>
-      <c r="B234" s="68"/>
-      <c r="C234" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="G234" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H234" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="84"/>
-      <c r="B235" s="68"/>
-      <c r="C235" s="14" t="s">
-        <v>387</v>
       </c>
       <c r="G235" s="14" t="s">
         <v>182</v>
@@ -9679,7 +9745,7 @@
       <c r="A236" s="84"/>
       <c r="B236" s="68"/>
       <c r="C236" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G236" s="14" t="s">
         <v>182</v>
@@ -9690,24 +9756,22 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="84"/>
-      <c r="B237" s="69"/>
+      <c r="B237" s="68"/>
       <c r="C237" s="14" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
       <c r="H237" s="14" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="84"/>
-      <c r="B238" s="67" t="s">
-        <v>449</v>
-      </c>
+      <c r="B238" s="68"/>
       <c r="C238" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G238" s="14" t="s">
         <v>182</v>
@@ -9718,22 +9782,24 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="84"/>
-      <c r="B239" s="68"/>
+      <c r="B239" s="69"/>
       <c r="C239" s="14" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G239" s="14" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="H239" s="14" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="84"/>
-      <c r="B240" s="68"/>
+      <c r="B240" s="67" t="s">
+        <v>449</v>
+      </c>
       <c r="C240" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G240" s="14" t="s">
         <v>182</v>
@@ -9746,7 +9812,7 @@
       <c r="A241" s="84"/>
       <c r="B241" s="68"/>
       <c r="C241" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G241" s="14" t="s">
         <v>182</v>
@@ -9756,54 +9822,81 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="85"/>
-      <c r="B242" s="69"/>
+      <c r="A242" s="84"/>
+      <c r="B242" s="68"/>
       <c r="C242" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G242" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H242" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="84"/>
+      <c r="B243" s="68"/>
+      <c r="C243" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="G243" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H243" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="85"/>
+      <c r="B244" s="69"/>
+      <c r="C244" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G242" s="14" t="s">
+      <c r="G244" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="H242" s="14" t="s">
+      <c r="H244" s="14" t="s">
         <v>414</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="B233:B237"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="A233:A242"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="A129:A146"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="A220:A229"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="A212:A219"/>
-    <mergeCell ref="A147:A157"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B166:B170"/>
-    <mergeCell ref="B171:B175"/>
-    <mergeCell ref="A158:A195"/>
-    <mergeCell ref="A196:A207"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B196:B198"/>
+  <mergeCells count="42">
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="B240:B244"/>
+    <mergeCell ref="A235:A244"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="A131:A148"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="A222:A231"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="A214:A221"/>
+    <mergeCell ref="A149:A159"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B168:B172"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="A160:A197"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B198:B200"/>
     <mergeCell ref="A43:A62"/>
     <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="A63:A124"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="A63:A126"/>
     <mergeCell ref="B63:B72"/>
     <mergeCell ref="B74:B79"/>
     <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="B101:B111"/>
-    <mergeCell ref="B112:B119"/>
-    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B91:B102"/>
+    <mergeCell ref="B103:B113"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B122:B126"/>
     <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B86:B87"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B31:B36"/>
@@ -9847,84 +9940,84 @@
     <hyperlink ref="F60" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
     <hyperlink ref="F58" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
     <hyperlink ref="F57" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="F99" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="F97" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="F123" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="F121" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="F124" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="F120" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="F114" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="F113" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="F118" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="F119" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="F112" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="F109" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="F111" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="F87" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="F220" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="F221" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="F222" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="F223" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="F224" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="F225" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="F226" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="F227" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="F228" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="F229" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="F219" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="F212" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="F213" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="F214" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="F215" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="F208" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="F209" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="F210" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="F197" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="F198" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="F125" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="F129" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="F130" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="F131" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="F132" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="F133" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="F134" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="F135" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="F136" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="F147" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="F148" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="F155" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="F156" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="F158" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="F159" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="F160" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="F161" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="F162" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="F163" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="F164" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="F165" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="F166" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="F167" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="F168" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="F169" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="F170" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="F171" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="F172" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="F173" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="F174" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="F175" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="F188" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="F189" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="F190" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="F191" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="F192" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="F193" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="F194" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="F201" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="F202" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="F203" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="F204" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="F205" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="F206" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="F101" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="F99" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="F125" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="F123" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="F126" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="F122" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="F116" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="F115" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="F120" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="F121" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="F114" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="F111" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="F113" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="F88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="F222" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="F223" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="F224" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="F225" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="F226" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="F227" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="F228" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="F229" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="F230" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="F231" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="F221" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="F214" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="F215" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="F216" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="F217" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="F210" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="F211" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="F212" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="F199" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="F200" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="F127" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="F131" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="F132" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="F133" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="F134" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="F135" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="F136" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="F137" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="F138" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="F149" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="F150" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="F157" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="F158" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="F160" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="F161" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="F162" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="F163" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="F164" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="F165" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="F166" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="F167" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="F168" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="F169" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="F170" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="F171" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="F172" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="F173" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="F174" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="F175" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="F176" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="F177" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="F190" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="F191" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="F192" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="F193" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="F194" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="F195" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="F196" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="F203" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="F204" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="F205" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="F206" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="F207" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="F208" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
     <hyperlink ref="F12" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
     <hyperlink ref="F13" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="F14" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
@@ -9937,8 +10030,23 @@
     <hyperlink ref="F21" r:id="rId122" xr:uid="{5DECC7D8-A5EE-4B42-9AEB-D8BD5B2E141A}"/>
     <hyperlink ref="F22" r:id="rId123" xr:uid="{0B624EB4-A382-4E97-8F2B-B7001979DDF6}"/>
     <hyperlink ref="F23" r:id="rId124" xr:uid="{2DD45492-73C0-49EB-86A1-B5FC949A6776}"/>
+    <hyperlink ref="F87" r:id="rId125" xr:uid="{D01B613D-8C0E-448F-B75B-BD96118366C2}"/>
+    <hyperlink ref="F73" r:id="rId126" xr:uid="{E80DFF99-0006-4A28-A8E9-5ED423568D0B}"/>
+    <hyperlink ref="F74" r:id="rId127" xr:uid="{C98AE3BF-48B8-4683-A7DD-F23BEB82B7C1}"/>
+    <hyperlink ref="F75" r:id="rId128" xr:uid="{21A6AC77-AC8C-4CE1-886C-94A4826ADB41}"/>
+    <hyperlink ref="F76" r:id="rId129" xr:uid="{2F7620E5-D9C0-4700-9F1B-19CDD6EF6F65}"/>
+    <hyperlink ref="F77" r:id="rId130" xr:uid="{B2D7C3FC-CC23-4243-A508-7F76E48B7A1D}"/>
+    <hyperlink ref="F78" r:id="rId131" xr:uid="{FBD1C01E-4C21-40A8-A858-E7343542E630}"/>
+    <hyperlink ref="F79" r:id="rId132" xr:uid="{147C5EC8-29D9-4626-B02F-B85CE0A10FC2}"/>
+    <hyperlink ref="F80" r:id="rId133" xr:uid="{2D9EEE0C-1049-4FC2-B5B1-C53D5D862388}"/>
+    <hyperlink ref="F81" r:id="rId134" xr:uid="{669D8A4A-2C8C-40EE-8033-EBE47B87F28E}"/>
+    <hyperlink ref="F82" r:id="rId135" xr:uid="{AD8D0ECC-0781-4EA2-BD0F-6A0BB7452A20}"/>
+    <hyperlink ref="F83" r:id="rId136" xr:uid="{1A1931CE-B348-476B-BD79-A4EEE03BC4EE}"/>
+    <hyperlink ref="F84" r:id="rId137" xr:uid="{3239E382-030D-4D6A-B492-18E8E93683AC}"/>
+    <hyperlink ref="F85" r:id="rId138" xr:uid="{E9E5F9E0-3A0C-496F-A49A-F9300DE14933}"/>
+    <hyperlink ref="F90" r:id="rId139" xr:uid="{5EB1B3C5-8338-49D7-86CA-06C18AD3BF27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId140"/>
 </worksheet>
 </file>